--- a/LISTADO_PEDIDO_COMPRAS/data/output/Resumen_Pedidos_CONSOLIDADO_06022026.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/output/Resumen_Pedidos_CONSOLIDADO_06022026.xlsx
@@ -672,10 +672,10 @@
         <v>131.5</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>16</v>
